--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>11.54028022085</v>
+        <v>9.149299877323665</v>
       </c>
       <c r="R2">
-        <v>103.86252198765</v>
+        <v>82.34369889591299</v>
       </c>
       <c r="S2">
-        <v>0.006484254551778532</v>
+        <v>0.004957833507168274</v>
       </c>
       <c r="T2">
-        <v>0.006484254551778532</v>
+        <v>0.004957833507168274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H3">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>458.2296654591151</v>
+        <v>336.011155936533</v>
       </c>
       <c r="R3">
-        <v>4124.066989132035</v>
+        <v>3024.100403428797</v>
       </c>
       <c r="S3">
-        <v>0.2574701599225439</v>
+        <v>0.1820781251047801</v>
       </c>
       <c r="T3">
-        <v>0.257470159922544</v>
+        <v>0.1820781251047801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H4">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>1.340900607468334</v>
+        <v>2.332409891091</v>
       </c>
       <c r="R4">
-        <v>12.068105467215</v>
+        <v>20.991689019819</v>
       </c>
       <c r="S4">
-        <v>0.0007534254542407227</v>
+        <v>0.001263889047856223</v>
       </c>
       <c r="T4">
-        <v>0.0007534254542407227</v>
+        <v>0.001263889047856223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H5">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>98.13046263435891</v>
+        <v>85.86496483017601</v>
       </c>
       <c r="R5">
-        <v>883.17416370923</v>
+        <v>772.7846834715841</v>
       </c>
       <c r="S5">
-        <v>0.0551375605122098</v>
+        <v>0.04652860934004035</v>
       </c>
       <c r="T5">
-        <v>0.0551375605122098</v>
+        <v>0.04652860934004036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H6">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.6877238602894445</v>
+        <v>1.159667029348333</v>
       </c>
       <c r="R6">
-        <v>6.189514742605</v>
+        <v>10.437003264135</v>
       </c>
       <c r="S6">
-        <v>0.0003864183959234984</v>
+        <v>0.0006284017501176576</v>
       </c>
       <c r="T6">
-        <v>0.0003864183959234984</v>
+        <v>0.0006284017501176577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J7">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>0.25629145124</v>
+        <v>0.2770991113684444</v>
       </c>
       <c r="R7">
-        <v>2.30662306116</v>
+        <v>2.493892002316</v>
       </c>
       <c r="S7">
-        <v>0.0001440050828473289</v>
+        <v>0.0001501547962761596</v>
       </c>
       <c r="T7">
-        <v>0.0001440050828473289</v>
+        <v>0.0001501547962761596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J8">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>10.176559296156</v>
@@ -948,10 +948,10 @@
         <v>91.589033665404</v>
       </c>
       <c r="S8">
-        <v>0.005718006813935352</v>
+        <v>0.00551448606370585</v>
       </c>
       <c r="T8">
-        <v>0.005718006813935353</v>
+        <v>0.005514486063705851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J9">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>0.02977929097733334</v>
+        <v>0.070640236612</v>
       </c>
       <c r="R9">
-        <v>0.268013618796</v>
+        <v>0.635762129508</v>
       </c>
       <c r="S9">
-        <v>1.673239292054976E-05</v>
+        <v>3.827861549245832E-05</v>
       </c>
       <c r="T9">
-        <v>1.673239292054977E-05</v>
+        <v>3.827861549245833E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.488444</v>
       </c>
       <c r="I10">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J10">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>2.179323049190222</v>
+        <v>2.600538376832</v>
       </c>
       <c r="R10">
-        <v>19.613907442712</v>
+        <v>23.404845391488</v>
       </c>
       <c r="S10">
-        <v>0.001224518393927416</v>
+        <v>0.001409182830840399</v>
       </c>
       <c r="T10">
-        <v>0.001224518393927416</v>
+        <v>0.0014091828308404</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.488444</v>
       </c>
       <c r="I11">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J11">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>0.01527326397911111</v>
+        <v>0.03512210853555556</v>
       </c>
       <c r="R11">
-        <v>0.137459375812</v>
+        <v>0.31609897682</v>
       </c>
       <c r="S11">
-        <v>8.581744080887823E-06</v>
+        <v>1.903200997614631E-05</v>
       </c>
       <c r="T11">
-        <v>8.581744080887823E-06</v>
+        <v>1.903200997614631E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H12">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>11.65260593997</v>
+        <v>17.00933527232766</v>
       </c>
       <c r="R12">
-        <v>104.87345345973</v>
+        <v>153.084017450949</v>
       </c>
       <c r="S12">
-        <v>0.006547368145343593</v>
+        <v>0.009217038842153809</v>
       </c>
       <c r="T12">
-        <v>0.006547368145343594</v>
+        <v>0.009217038842153809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H13">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>462.689780439843</v>
+        <v>624.6736343982091</v>
       </c>
       <c r="R13">
-        <v>4164.208023958587</v>
+        <v>5622.062709583881</v>
       </c>
       <c r="S13">
-        <v>0.2599762100627294</v>
+        <v>0.3384988925043258</v>
       </c>
       <c r="T13">
-        <v>0.2599762100627295</v>
+        <v>0.3384988925043258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H14">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>1.353952077807</v>
+        <v>4.336150564743001</v>
       </c>
       <c r="R14">
-        <v>12.185568700263</v>
+        <v>39.025355082687</v>
       </c>
       <c r="S14">
-        <v>0.0007607588165448719</v>
+        <v>0.002349678428979202</v>
       </c>
       <c r="T14">
-        <v>0.000760758816544872</v>
+        <v>0.002349678428979203</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H15">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>99.085601900654</v>
+        <v>159.630353636448</v>
       </c>
       <c r="R15">
-        <v>891.7704171058859</v>
+        <v>1436.673182728032</v>
       </c>
       <c r="S15">
-        <v>0.05567423432051704</v>
+        <v>0.08650068602313726</v>
       </c>
       <c r="T15">
-        <v>0.05567423432051705</v>
+        <v>0.08650068602313728</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H16">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>0.6944177252289999</v>
+        <v>2.155920733928333</v>
       </c>
       <c r="R16">
-        <v>6.249759527060999</v>
+        <v>19.403286605355</v>
       </c>
       <c r="S16">
-        <v>0.0003901795458585653</v>
+        <v>0.001168252893312679</v>
       </c>
       <c r="T16">
-        <v>0.0003901795458585653</v>
+        <v>0.001168252893312679</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H17">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I17">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J17">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>2.54220840638</v>
+        <v>1.320919239499889</v>
       </c>
       <c r="R17">
-        <v>22.87987565742</v>
+        <v>11.888273155499</v>
       </c>
       <c r="S17">
-        <v>0.001428416478211393</v>
+        <v>0.0007157812896795609</v>
       </c>
       <c r="T17">
-        <v>0.001428416478211394</v>
+        <v>0.000715781289679561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H18">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I18">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J18">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>100.943416042722</v>
+        <v>48.511209219759</v>
       </c>
       <c r="R18">
-        <v>908.4907443844979</v>
+        <v>436.600882977831</v>
       </c>
       <c r="S18">
-        <v>0.0567181032367413</v>
+        <v>0.02628731179082582</v>
       </c>
       <c r="T18">
-        <v>0.05671810323674131</v>
+        <v>0.02628731179082583</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H19">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I19">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J19">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>0.2953870037113333</v>
+        <v>0.336738891593</v>
       </c>
       <c r="R19">
-        <v>2.658483033402</v>
+        <v>3.030650024337</v>
       </c>
       <c r="S19">
-        <v>0.0001659720983110026</v>
+        <v>0.0001824724713684691</v>
       </c>
       <c r="T19">
-        <v>0.0001659720983110026</v>
+        <v>0.0001824724713684691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H20">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I20">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J20">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>21.61716026447155</v>
+        <v>12.396651718048</v>
       </c>
       <c r="R20">
-        <v>194.554442380244</v>
+        <v>111.569865462432</v>
       </c>
       <c r="S20">
-        <v>0.01214625357087744</v>
+        <v>0.006717512387670456</v>
       </c>
       <c r="T20">
-        <v>0.01214625357087745</v>
+        <v>0.006717512387670458</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H21">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I21">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J21">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>0.1514986937437778</v>
+        <v>0.1674255419561111</v>
       </c>
       <c r="R21">
-        <v>1.363488243694</v>
+        <v>1.506829877605</v>
       </c>
       <c r="S21">
-        <v>8.512411100050715E-05</v>
+        <v>9.072475194775505E-05</v>
       </c>
       <c r="T21">
-        <v>8.512411100050716E-05</v>
+        <v>9.072475194775506E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H22">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>10.04588305361</v>
+        <v>11.10099509760222</v>
       </c>
       <c r="R22">
-        <v>90.41294748249</v>
+        <v>99.90895587841999</v>
       </c>
       <c r="S22">
-        <v>0.005644582425244398</v>
+        <v>0.006015420436071913</v>
       </c>
       <c r="T22">
-        <v>0.005644582425244398</v>
+        <v>0.006015420436071913</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H23">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>398.891668382559</v>
+        <v>407.68782800922</v>
       </c>
       <c r="R23">
-        <v>3590.025015443031</v>
+        <v>3669.19045208298</v>
       </c>
       <c r="S23">
-        <v>0.2241293163490991</v>
+        <v>0.2209183654782576</v>
       </c>
       <c r="T23">
-        <v>0.2241293163490991</v>
+        <v>0.2209183654782576</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H24">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>1.167262010224333</v>
+        <v>2.82995104694</v>
       </c>
       <c r="R24">
-        <v>10.505358092019</v>
+        <v>25.46955942246</v>
       </c>
       <c r="S24">
-        <v>0.0006558613706139113</v>
+        <v>0.001533497241569179</v>
       </c>
       <c r="T24">
-        <v>0.0006558613706139113</v>
+        <v>0.001533497241569179</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H25">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>85.42315548285757</v>
+        <v>104.18136539584</v>
       </c>
       <c r="R25">
-        <v>768.808399345718</v>
+        <v>937.63228856256</v>
       </c>
       <c r="S25">
-        <v>0.04799757667636656</v>
+        <v>0.05645392227903741</v>
       </c>
       <c r="T25">
-        <v>0.04799757667636656</v>
+        <v>0.05645392227903742</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H26">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>0.5986677395547778</v>
+        <v>1.407042962877778</v>
       </c>
       <c r="R26">
-        <v>5.388009655993</v>
+        <v>12.6633866659</v>
       </c>
       <c r="S26">
-        <v>0.000336379528132906</v>
+        <v>0.0007624501154094147</v>
       </c>
       <c r="T26">
-        <v>0.000336379528132906</v>
+        <v>0.0007624501154094147</v>
       </c>
     </row>
   </sheetData>
